--- a/Задание 7/7_12_RES7Model_Anova_TrashkoMaria_2023.xlsx
+++ b/Задание 7/7_12_RES7Model_Anova_TrashkoMaria_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="1830" windowWidth="17055" windowHeight="6180" tabRatio="730" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="6870" yWindow="1830" windowWidth="17055" windowHeight="6180" tabRatio="730" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="7_data12_ for R_" sheetId="5" r:id="rId1"/>
@@ -1446,6 +1446,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1543,6 +1552,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,6 +1575,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1572,6 +1590,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1580,30 +1604,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1645,7 +1645,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,6 +1685,87 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>306356</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277349" y="4333876"/>
+          <a:ext cx="5564157" cy="4467224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>353104</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390526" y="11001375"/>
+          <a:ext cx="5048928" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1947,7 +2028,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2516,69 +2597,69 @@
       <c r="L4" s="127"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="154" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="153"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="154"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="159"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="154"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="156"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
+      <c r="L8" s="159"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="157"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="159"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="162"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="33">
@@ -2612,58 +2693,58 @@
       <c r="L12" s="127"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="154" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="153"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="156"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="154"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="156"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="159"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="154"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="156"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="159"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="157"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="159"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="162"/>
     </row>
     <row r="17" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -2697,58 +2778,58 @@
       <c r="L18" s="127"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="153"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="156"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="154"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="156"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="158"/>
+      <c r="L20" s="159"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="154"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="156"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="159"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="159"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="162"/>
     </row>
     <row r="24" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -2782,56 +2863,56 @@
       <c r="L25" s="127"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="151"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="153"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="156"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="154"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="156"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="159"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="156"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="158"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="158"/>
+      <c r="L28" s="159"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="157"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="159"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="161"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="162"/>
     </row>
     <row r="31" spans="1:12" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -2865,56 +2946,56 @@
       <c r="L32" s="127"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="151"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="153"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="156"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="154"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="156"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="158"/>
+      <c r="J34" s="158"/>
+      <c r="K34" s="158"/>
+      <c r="L34" s="159"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="154"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="158"/>
+      <c r="I35" s="158"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="158"/>
+      <c r="L35" s="159"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="157"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="159"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="162"/>
     </row>
     <row r="38" spans="1:14" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -2948,56 +3029,56 @@
       <c r="L39" s="127"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="151"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="152"/>
-      <c r="K40" s="152"/>
-      <c r="L40" s="153"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="156"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="154"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="155"/>
-      <c r="L41" s="156"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="158"/>
+      <c r="L41" s="159"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="154"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="156"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
+      <c r="K42" s="158"/>
+      <c r="L42" s="159"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="157"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="159"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="162"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N44" t="s">
@@ -3038,59 +3119,59 @@
       <c r="N46" s="130"/>
     </row>
     <row r="47" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="151"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="152"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="152"/>
-      <c r="K47" s="152"/>
-      <c r="L47" s="153"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="156"/>
       <c r="N47" s="130"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="154"/>
-      <c r="C48" s="155"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="155"/>
-      <c r="J48" s="155"/>
-      <c r="K48" s="155"/>
-      <c r="L48" s="156"/>
+      <c r="B48" s="157"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
+      <c r="J48" s="158"/>
+      <c r="K48" s="158"/>
+      <c r="L48" s="159"/>
       <c r="N48" s="130"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="154"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="155"/>
-      <c r="G49" s="155"/>
-      <c r="H49" s="155"/>
-      <c r="I49" s="155"/>
-      <c r="J49" s="155"/>
-      <c r="K49" s="155"/>
-      <c r="L49" s="156"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="158"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
+      <c r="J49" s="158"/>
+      <c r="K49" s="158"/>
+      <c r="L49" s="159"/>
       <c r="N49" s="130"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B50" s="157"/>
-      <c r="C50" s="158"/>
-      <c r="D50" s="158"/>
-      <c r="E50" s="158"/>
-      <c r="F50" s="158"/>
-      <c r="G50" s="158"/>
-      <c r="H50" s="158"/>
-      <c r="I50" s="158"/>
-      <c r="J50" s="158"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="159"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="161"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="161"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="161"/>
+      <c r="H50" s="161"/>
+      <c r="I50" s="161"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="161"/>
+      <c r="L50" s="162"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
@@ -4231,7 +4312,7 @@
       <c r="M5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="N5" s="161" t="s">
+      <c r="N5" s="164" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4273,7 +4354,7 @@
         <f>_xlfn.VAR.S(C6:J6)</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="N6" s="161"/>
+      <c r="N6" s="164"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="63"/>
@@ -4450,26 +4531,26 @@
       <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="172" t="s">
+      <c r="E13" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="174"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="177"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E14" s="175"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="177"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="180"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I15" s="86"/>
@@ -4483,26 +4564,26 @@
       <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="178" t="s">
+      <c r="E16" s="181" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="178"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="181"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
@@ -4622,15 +4703,15 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="172" t="s">
+      <c r="F25" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="174"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="177"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
@@ -4639,13 +4720,13 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="177"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="180"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
@@ -4692,7 +4773,7 @@
       <c r="F29" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="179" t="s">
+      <c r="G29" s="182" t="s">
         <v>58</v>
       </c>
       <c r="I29" s="86"/>
@@ -4712,7 +4793,7 @@
       <c r="F30" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="179"/>
+      <c r="G30" s="182"/>
       <c r="I30" s="86"/>
       <c r="J30" s="86"/>
       <c r="K30" s="86"/>
@@ -4730,7 +4811,7 @@
       <c r="F31" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="179"/>
+      <c r="G31" s="182"/>
       <c r="I31" s="86"/>
       <c r="J31" s="86"/>
       <c r="K31" s="86"/>
@@ -6571,7 +6652,7 @@
       <c r="F106" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="G106" s="179" t="s">
+      <c r="G106" s="182" t="s">
         <v>58</v>
       </c>
       <c r="I106" s="86" t="s">
@@ -6596,7 +6677,7 @@
       <c r="F107" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="G107" s="179"/>
+      <c r="G107" s="182"/>
       <c r="I107" s="86" t="s">
         <v>114</v>
       </c>
@@ -6621,7 +6702,7 @@
       <c r="F108" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="G108" s="179"/>
+      <c r="G108" s="182"/>
       <c r="I108" s="86" t="s">
         <v>115</v>
       </c>
@@ -6659,10 +6740,10 @@
       <c r="G110" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="I110" s="181" t="s">
+      <c r="I110" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="J110" s="181"/>
+      <c r="J110" s="184"/>
       <c r="K110" s="143">
         <v>1.9</v>
       </c>
@@ -6687,7 +6768,7 @@
         <f>D111/E111</f>
         <v>51.712500000000034</v>
       </c>
-      <c r="G111" s="180">
+      <c r="G111" s="183">
         <f>F111/F112</f>
         <v>27.115168539325857</v>
       </c>
@@ -6714,7 +6795,7 @@
         <f>D112/E112</f>
         <v>1.9071428571428573</v>
       </c>
-      <c r="G112" s="180"/>
+      <c r="G112" s="183"/>
       <c r="I112" t="s">
         <v>120</v>
       </c>
@@ -6741,7 +6822,7 @@
         <f>D113/E113</f>
         <v>7.0153846153846144</v>
       </c>
-      <c r="G113" s="180"/>
+      <c r="G113" s="183"/>
       <c r="I113" s="124">
         <v>7</v>
       </c>
@@ -6807,41 +6888,41 @@
         <v>117</v>
       </c>
       <c r="C119" s="7"/>
-      <c r="D119" s="162" t="s">
+      <c r="D119" s="165" t="s">
         <v>146</v>
       </c>
-      <c r="E119" s="163"/>
-      <c r="F119" s="163"/>
-      <c r="G119" s="163"/>
-      <c r="H119" s="163"/>
-      <c r="I119" s="163"/>
-      <c r="J119" s="163"/>
-      <c r="K119" s="163"/>
-      <c r="L119" s="164"/>
+      <c r="E119" s="166"/>
+      <c r="F119" s="166"/>
+      <c r="G119" s="166"/>
+      <c r="H119" s="166"/>
+      <c r="I119" s="166"/>
+      <c r="J119" s="166"/>
+      <c r="K119" s="166"/>
+      <c r="L119" s="167"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C120" s="7"/>
-      <c r="D120" s="165"/>
-      <c r="E120" s="166"/>
-      <c r="F120" s="166"/>
-      <c r="G120" s="166"/>
-      <c r="H120" s="166"/>
-      <c r="I120" s="166"/>
-      <c r="J120" s="166"/>
-      <c r="K120" s="166"/>
-      <c r="L120" s="167"/>
+      <c r="D120" s="168"/>
+      <c r="E120" s="169"/>
+      <c r="F120" s="169"/>
+      <c r="G120" s="169"/>
+      <c r="H120" s="169"/>
+      <c r="I120" s="169"/>
+      <c r="J120" s="169"/>
+      <c r="K120" s="169"/>
+      <c r="L120" s="170"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C121" s="7"/>
-      <c r="D121" s="168"/>
-      <c r="E121" s="169"/>
-      <c r="F121" s="169"/>
-      <c r="G121" s="169"/>
-      <c r="H121" s="169"/>
-      <c r="I121" s="169"/>
-      <c r="J121" s="169"/>
-      <c r="K121" s="169"/>
-      <c r="L121" s="170"/>
+      <c r="D121" s="171"/>
+      <c r="E121" s="172"/>
+      <c r="F121" s="172"/>
+      <c r="G121" s="172"/>
+      <c r="H121" s="172"/>
+      <c r="I121" s="172"/>
+      <c r="J121" s="172"/>
+      <c r="K121" s="172"/>
+      <c r="L121" s="173"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C122" s="7"/>
@@ -6895,44 +6976,44 @@
         <v>45</v>
       </c>
       <c r="C127" s="7"/>
-      <c r="D127" s="171" t="s">
+      <c r="D127" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="E127" s="171"/>
-      <c r="F127" s="171"/>
-      <c r="G127" s="171"/>
-      <c r="H127" s="171"/>
-      <c r="I127" s="171"/>
-      <c r="J127" s="171"/>
-      <c r="K127" s="171"/>
-      <c r="L127" s="171"/>
+      <c r="E127" s="174"/>
+      <c r="F127" s="174"/>
+      <c r="G127" s="174"/>
+      <c r="H127" s="174"/>
+      <c r="I127" s="174"/>
+      <c r="J127" s="174"/>
+      <c r="K127" s="174"/>
+      <c r="L127" s="174"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>119</v>
       </c>
       <c r="C128" s="7"/>
-      <c r="D128" s="171"/>
-      <c r="E128" s="171"/>
-      <c r="F128" s="171"/>
-      <c r="G128" s="171"/>
-      <c r="H128" s="171"/>
-      <c r="I128" s="171"/>
-      <c r="J128" s="171"/>
-      <c r="K128" s="171"/>
-      <c r="L128" s="171"/>
+      <c r="D128" s="174"/>
+      <c r="E128" s="174"/>
+      <c r="F128" s="174"/>
+      <c r="G128" s="174"/>
+      <c r="H128" s="174"/>
+      <c r="I128" s="174"/>
+      <c r="J128" s="174"/>
+      <c r="K128" s="174"/>
+      <c r="L128" s="174"/>
     </row>
     <row r="129" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C129" s="7"/>
-      <c r="D129" s="171"/>
-      <c r="E129" s="171"/>
-      <c r="F129" s="171"/>
-      <c r="G129" s="171"/>
-      <c r="H129" s="171"/>
-      <c r="I129" s="171"/>
-      <c r="J129" s="171"/>
-      <c r="K129" s="171"/>
-      <c r="L129" s="171"/>
+      <c r="D129" s="174"/>
+      <c r="E129" s="174"/>
+      <c r="F129" s="174"/>
+      <c r="G129" s="174"/>
+      <c r="H129" s="174"/>
+      <c r="I129" s="174"/>
+      <c r="J129" s="174"/>
+      <c r="K129" s="174"/>
+      <c r="L129" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7564,8 +7645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT98"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7846,16 +7927,16 @@
       <c r="R16" s="44"/>
     </row>
     <row r="17" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="184" t="s">
+      <c r="B17" s="188" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="185"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="186"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="190"/>
       <c r="J17" s="42"/>
       <c r="K17" s="43"/>
       <c r="L17" s="41"/>
@@ -7863,14 +7944,14 @@
       <c r="N17" s="41"/>
     </row>
     <row r="18" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="187"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="189"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="193"/>
       <c r="J18" s="42"/>
       <c r="K18" s="43"/>
       <c r="L18" s="41"/>
@@ -7921,16 +8002,16 @@
       <c r="C23" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="182"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
       <c r="N23" s="53" t="s">
         <v>39</v>
       </c>
@@ -8343,16 +8424,16 @@
       <c r="C47" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="182" t="s">
+      <c r="D47" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="182"/>
-      <c r="I47" s="182"/>
-      <c r="J47" s="182"/>
-      <c r="K47" s="182"/>
+      <c r="E47" s="185"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="185"/>
+      <c r="H47" s="185"/>
+      <c r="I47" s="185"/>
+      <c r="J47" s="185"/>
+      <c r="K47" s="185"/>
       <c r="N47" s="53" t="s">
         <v>39</v>
       </c>
@@ -8597,36 +8678,36 @@
       <c r="I76" s="128"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="203" t="s">
+      <c r="B78" s="186" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="183"/>
-      <c r="D78" s="183"/>
-      <c r="E78" s="183"/>
-      <c r="F78" s="183"/>
-      <c r="G78" s="183"/>
-      <c r="H78" s="183"/>
-      <c r="I78" s="183"/>
+      <c r="C78" s="187"/>
+      <c r="D78" s="187"/>
+      <c r="E78" s="187"/>
+      <c r="F78" s="187"/>
+      <c r="G78" s="187"/>
+      <c r="H78" s="187"/>
+      <c r="I78" s="187"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="183"/>
-      <c r="C79" s="183"/>
-      <c r="D79" s="183"/>
-      <c r="E79" s="183"/>
-      <c r="F79" s="183"/>
-      <c r="G79" s="183"/>
-      <c r="H79" s="183"/>
-      <c r="I79" s="183"/>
+      <c r="B79" s="187"/>
+      <c r="C79" s="187"/>
+      <c r="D79" s="187"/>
+      <c r="E79" s="187"/>
+      <c r="F79" s="187"/>
+      <c r="G79" s="187"/>
+      <c r="H79" s="187"/>
+      <c r="I79" s="187"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="183"/>
-      <c r="C80" s="183"/>
-      <c r="D80" s="183"/>
-      <c r="E80" s="183"/>
-      <c r="F80" s="183"/>
-      <c r="G80" s="183"/>
-      <c r="H80" s="183"/>
-      <c r="I80" s="183"/>
+      <c r="B80" s="187"/>
+      <c r="C80" s="187"/>
+      <c r="D80" s="187"/>
+      <c r="E80" s="187"/>
+      <c r="F80" s="187"/>
+      <c r="G80" s="187"/>
+      <c r="H80" s="187"/>
+      <c r="I80" s="187"/>
     </row>
     <row r="91" spans="15:21" x14ac:dyDescent="0.2">
       <c r="O91" s="1"/>
@@ -8704,6 +8785,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8711,7 +8793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -8777,10 +8859,10 @@
       <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="197"/>
+      <c r="C6" s="195"/>
       <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
@@ -8966,10 +9048,10 @@
       <c r="Q10" s="75"/>
     </row>
     <row r="11" spans="1:23" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="198" t="s">
+      <c r="B11" s="199" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="199"/>
+      <c r="C11" s="200"/>
       <c r="D11" s="38">
         <f>SUM(D8:D10)</f>
         <v>273.60000000000002</v>
@@ -9025,7 +9107,7 @@
     </row>
     <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
-      <c r="O15" s="201" t="s">
+      <c r="O15" s="152" t="s">
         <v>168</v>
       </c>
       <c r="P15" s="136"/>
@@ -9041,12 +9123,12 @@
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="196" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="191"/>
-      <c r="D16" s="192"/>
-      <c r="O16" s="200"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="198"/>
+      <c r="O16" s="151"/>
       <c r="P16" s="136"/>
       <c r="Q16" s="136"/>
       <c r="R16" s="136"/>
@@ -9057,7 +9139,7 @@
       <c r="W16" s="126"/>
     </row>
     <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="O17" s="201" t="s">
+      <c r="O17" s="152" t="s">
         <v>169</v>
       </c>
       <c r="P17" s="136"/>
@@ -9073,20 +9155,20 @@
       <c r="A18" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="196" t="s">
+      <c r="B18" s="194" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="196"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="196"/>
-      <c r="L18" s="196"/>
-      <c r="O18" s="201" t="s">
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="O18" s="152" t="s">
         <v>170</v>
       </c>
       <c r="P18" s="136"/>
@@ -9099,18 +9181,18 @@
       <c r="W18" s="126"/>
     </row>
     <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
-      <c r="L19" s="196"/>
-      <c r="O19" s="201" t="s">
+      <c r="B19" s="194"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="O19" s="152" t="s">
         <v>171</v>
       </c>
       <c r="P19" s="136"/>
@@ -9123,18 +9205,18 @@
       <c r="W19" s="126"/>
     </row>
     <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="196"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="196"/>
-      <c r="L20" s="196"/>
-      <c r="O20" s="201" t="s">
+      <c r="B20" s="194"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="O20" s="152" t="s">
         <v>172</v>
       </c>
       <c r="P20" s="136"/>
@@ -9147,7 +9229,7 @@
       <c r="W20" s="126"/>
     </row>
     <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="O21" s="201" t="s">
+      <c r="O21" s="152" t="s">
         <v>173</v>
       </c>
       <c r="P21" s="136"/>
@@ -9163,20 +9245,20 @@
       <c r="A22" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="196" t="s">
+      <c r="B22" s="194" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="196"/>
-      <c r="D22" s="196"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="196"/>
-      <c r="K22" s="196"/>
-      <c r="L22" s="196"/>
-      <c r="O22" s="201" t="s">
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="O22" s="152" t="s">
         <v>174</v>
       </c>
       <c r="P22" s="136"/>
@@ -9189,18 +9271,18 @@
       <c r="W22" s="126"/>
     </row>
     <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="196"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="196"/>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="196"/>
-      <c r="J23" s="196"/>
-      <c r="K23" s="196"/>
-      <c r="L23" s="196"/>
-      <c r="O23" s="202" t="s">
+      <c r="B23" s="194"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="O23" s="153" t="s">
         <v>175</v>
       </c>
       <c r="P23" s="136"/>
@@ -9213,17 +9295,17 @@
       <c r="W23" s="126"/>
     </row>
     <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="196"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="196"/>
-      <c r="E24" s="196"/>
-      <c r="F24" s="196"/>
-      <c r="G24" s="196"/>
-      <c r="H24" s="196"/>
-      <c r="I24" s="196"/>
-      <c r="J24" s="196"/>
-      <c r="K24" s="196"/>
-      <c r="L24" s="196"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
       <c r="O24" s="136"/>
       <c r="P24" s="136"/>
       <c r="Q24" s="136"/>
@@ -9241,113 +9323,113 @@
       <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="190" t="s">
+      <c r="F26" s="196" t="s">
         <v>164</v>
       </c>
-      <c r="G26" s="191"/>
-      <c r="H26" s="191"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="192"/>
+      <c r="G26" s="197"/>
+      <c r="H26" s="197"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="197"/>
+      <c r="L26" s="198"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="190" t="s">
+      <c r="B28" s="196" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="191"/>
-      <c r="D28" s="192"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="198"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="196" t="s">
+      <c r="B30" s="194" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="196"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="196"/>
-      <c r="L30" s="196"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="194"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="196"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="196"/>
-      <c r="K31" s="196"/>
-      <c r="L31" s="196"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="196"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="196"/>
-      <c r="K32" s="196"/>
-      <c r="L32" s="196"/>
+      <c r="B32" s="194"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="194"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="196" t="s">
+      <c r="B34" s="194" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="196"/>
-      <c r="K34" s="196"/>
-      <c r="L34" s="196"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="194"/>
+      <c r="L34" s="194"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="196"/>
-      <c r="C35" s="196"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="196"/>
-      <c r="K35" s="196"/>
-      <c r="L35" s="196"/>
+      <c r="B35" s="194"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="194"/>
+      <c r="L35" s="194"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="196"/>
-      <c r="C36" s="196"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="196"/>
-      <c r="F36" s="196"/>
-      <c r="G36" s="196"/>
-      <c r="H36" s="196"/>
-      <c r="I36" s="196"/>
-      <c r="J36" s="196"/>
-      <c r="K36" s="196"/>
-      <c r="L36" s="196"/>
+      <c r="B36" s="194"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="194"/>
+      <c r="L36" s="194"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="67" t="s">
@@ -9356,15 +9438,15 @@
       <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="190" t="s">
+      <c r="F38" s="196" t="s">
         <v>167</v>
       </c>
-      <c r="G38" s="191"/>
-      <c r="H38" s="191"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="191"/>
-      <c r="L38" s="192"/>
+      <c r="G38" s="197"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="197"/>
+      <c r="L38" s="198"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
@@ -9378,11 +9460,11 @@
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="190" t="s">
+      <c r="B44" s="196" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="191"/>
-      <c r="D44" s="192"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="198"/>
       <c r="E44" s="66" t="s">
         <v>66</v>
       </c>
@@ -9412,11 +9494,11 @@
       <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="190" t="s">
+      <c r="B48" s="196" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="191"/>
-      <c r="D48" s="192"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="198"/>
       <c r="E48" s="66" t="s">
         <v>69</v>
       </c>
@@ -9446,42 +9528,47 @@
       <c r="A52" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="172" t="s">
+      <c r="D52" s="175" t="s">
         <v>176</v>
       </c>
-      <c r="E52" s="173"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="173"/>
-      <c r="H52" s="173"/>
-      <c r="I52" s="173"/>
-      <c r="J52" s="173"/>
-      <c r="K52" s="173"/>
-      <c r="L52" s="174"/>
+      <c r="E52" s="176"/>
+      <c r="F52" s="176"/>
+      <c r="G52" s="176"/>
+      <c r="H52" s="176"/>
+      <c r="I52" s="176"/>
+      <c r="J52" s="176"/>
+      <c r="K52" s="176"/>
+      <c r="L52" s="177"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D53" s="193"/>
-      <c r="E53" s="194"/>
-      <c r="F53" s="194"/>
-      <c r="G53" s="194"/>
-      <c r="H53" s="194"/>
-      <c r="I53" s="194"/>
-      <c r="J53" s="194"/>
-      <c r="K53" s="194"/>
-      <c r="L53" s="195"/>
+      <c r="D53" s="201"/>
+      <c r="E53" s="202"/>
+      <c r="F53" s="202"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="202"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
+      <c r="L53" s="203"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D54" s="175"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="176"/>
-      <c r="G54" s="176"/>
-      <c r="H54" s="176"/>
-      <c r="I54" s="176"/>
-      <c r="J54" s="176"/>
-      <c r="K54" s="176"/>
-      <c r="L54" s="177"/>
+      <c r="D54" s="178"/>
+      <c r="E54" s="179"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="179"/>
+      <c r="H54" s="179"/>
+      <c r="I54" s="179"/>
+      <c r="J54" s="179"/>
+      <c r="K54" s="179"/>
+      <c r="L54" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="D52:L54"/>
+    <mergeCell ref="B34:L36"/>
+    <mergeCell ref="F38:L38"/>
     <mergeCell ref="B30:L32"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B18:L20"/>
@@ -9490,11 +9577,6 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="D52:L54"/>
-    <mergeCell ref="B34:L36"/>
-    <mergeCell ref="F38:L38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Задание 7/7_12_RES7Model_Anova_TrashkoMaria_2023.xlsx
+++ b/Задание 7/7_12_RES7Model_Anova_TrashkoMaria_2023.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="1830" windowWidth="17055" windowHeight="6180" tabRatio="730" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="6870" yWindow="1830" windowWidth="17055" windowHeight="6180" tabRatio="730" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="7_data12_ for R_" sheetId="5" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="7_Отчет_усл._прим-сти" sheetId="7" r:id="rId6"/>
     <sheet name="7_Гипотезы" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="181">
   <si>
     <t>NPK30</t>
   </si>
@@ -622,6 +622,18 @@
   </si>
   <si>
     <t>Количество удобрения влияет на урожай пшеницы гораздо больше, чем количество гербицида</t>
+  </si>
+  <si>
+    <t>Первый фактор - доза гербицида, градации: 0, 10, 20, 30 г/га. Активный.</t>
+  </si>
+  <si>
+    <t>Второй фактор - количество удобрения, градации: 0, 30, 60, 90 и 120 кг д.в./га</t>
+  </si>
+  <si>
+    <t>Дисперсионный однофакторный и двухфакторный, так как он позволяет сравнивать влияние нескольких факторов.</t>
+  </si>
+  <si>
+    <t>Среднее значение урожайности при внесении определенной дозы удобрения.</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1106,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1575,35 +1587,62 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1645,7 +1684,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2553,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:L22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2863,7 +2902,9 @@
       <c r="L25" s="127"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="154"/>
+      <c r="B26" s="154" t="s">
+        <v>177</v>
+      </c>
       <c r="C26" s="155"/>
       <c r="D26" s="155"/>
       <c r="E26" s="155"/>
@@ -2946,7 +2987,9 @@
       <c r="L32" s="127"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="154"/>
+      <c r="B33" s="154" t="s">
+        <v>178</v>
+      </c>
       <c r="C33" s="155"/>
       <c r="D33" s="155"/>
       <c r="E33" s="155"/>
@@ -3029,56 +3072,58 @@
       <c r="L39" s="127"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="154"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
-      <c r="L40" s="156"/>
+      <c r="B40" s="204" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="205"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="205"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="205"/>
+      <c r="H40" s="205"/>
+      <c r="I40" s="205"/>
+      <c r="J40" s="205"/>
+      <c r="K40" s="205"/>
+      <c r="L40" s="206"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="157"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="159"/>
+      <c r="B41" s="207"/>
+      <c r="C41" s="208"/>
+      <c r="D41" s="208"/>
+      <c r="E41" s="208"/>
+      <c r="F41" s="208"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="208"/>
+      <c r="J41" s="208"/>
+      <c r="K41" s="208"/>
+      <c r="L41" s="209"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="157"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="159"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="208"/>
+      <c r="D42" s="208"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="208"/>
+      <c r="G42" s="208"/>
+      <c r="H42" s="208"/>
+      <c r="I42" s="208"/>
+      <c r="J42" s="208"/>
+      <c r="K42" s="208"/>
+      <c r="L42" s="209"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="160"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="162"/>
+      <c r="B43" s="210"/>
+      <c r="C43" s="211"/>
+      <c r="D43" s="211"/>
+      <c r="E43" s="211"/>
+      <c r="F43" s="211"/>
+      <c r="G43" s="211"/>
+      <c r="H43" s="211"/>
+      <c r="I43" s="211"/>
+      <c r="J43" s="211"/>
+      <c r="K43" s="211"/>
+      <c r="L43" s="212"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N44" t="s">
@@ -3102,7 +3147,9 @@
       <c r="J45" s="127"/>
       <c r="K45" s="127"/>
       <c r="L45" s="127"/>
-      <c r="N45" s="130"/>
+      <c r="N45" s="130">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B46" s="127"/>
@@ -3116,10 +3163,14 @@
       <c r="J46" s="127"/>
       <c r="K46" s="127"/>
       <c r="L46" s="127"/>
-      <c r="N46" s="130"/>
+      <c r="N46" s="130">
+        <v>12.8</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="154"/>
+      <c r="B47" s="154" t="s">
+        <v>180</v>
+      </c>
       <c r="C47" s="155"/>
       <c r="D47" s="155"/>
       <c r="E47" s="155"/>
@@ -3130,7 +3181,9 @@
       <c r="J47" s="155"/>
       <c r="K47" s="155"/>
       <c r="L47" s="156"/>
-      <c r="N47" s="130"/>
+      <c r="N47" s="130">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B48" s="157"/>
@@ -3144,7 +3197,9 @@
       <c r="J48" s="158"/>
       <c r="K48" s="158"/>
       <c r="L48" s="159"/>
-      <c r="N48" s="130"/>
+      <c r="N48" s="130">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B49" s="157"/>
@@ -3158,7 +3213,9 @@
       <c r="J49" s="158"/>
       <c r="K49" s="158"/>
       <c r="L49" s="159"/>
-      <c r="N49" s="130"/>
+      <c r="N49" s="130">
+        <v>16.600000000000001</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B50" s="160"/>
@@ -4215,8 +4272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7645,7 +7702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
@@ -8793,7 +8850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -8859,10 +8916,10 @@
       <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="B6" s="195" t="s">
+      <c r="B6" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="195"/>
+      <c r="C6" s="201"/>
       <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
@@ -9048,10 +9105,10 @@
       <c r="Q10" s="75"/>
     </row>
     <row r="11" spans="1:23" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="199" t="s">
+      <c r="B11" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="200"/>
+      <c r="C11" s="203"/>
       <c r="D11" s="38">
         <f>SUM(D8:D10)</f>
         <v>273.60000000000002</v>
@@ -9123,11 +9180,11 @@
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="196" t="s">
+      <c r="B16" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="198"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="196"/>
       <c r="O16" s="151"/>
       <c r="P16" s="136"/>
       <c r="Q16" s="136"/>
@@ -9155,19 +9212,19 @@
       <c r="A18" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="200" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="194"/>
-      <c r="L18" s="194"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="200"/>
       <c r="O18" s="152" t="s">
         <v>170</v>
       </c>
@@ -9181,17 +9238,17 @@
       <c r="W18" s="126"/>
     </row>
     <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="194"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="194"/>
-      <c r="K19" s="194"/>
-      <c r="L19" s="194"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="200"/>
       <c r="O19" s="152" t="s">
         <v>171</v>
       </c>
@@ -9205,17 +9262,17 @@
       <c r="W19" s="126"/>
     </row>
     <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="194"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="194"/>
-      <c r="K20" s="194"/>
-      <c r="L20" s="194"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="200"/>
+      <c r="L20" s="200"/>
       <c r="O20" s="152" t="s">
         <v>172</v>
       </c>
@@ -9245,19 +9302,19 @@
       <c r="A22" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="200" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="194"/>
-      <c r="K22" s="194"/>
-      <c r="L22" s="194"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="200"/>
+      <c r="L22" s="200"/>
       <c r="O22" s="152" t="s">
         <v>174</v>
       </c>
@@ -9271,17 +9328,17 @@
       <c r="W22" s="126"/>
     </row>
     <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="194"/>
-      <c r="K23" s="194"/>
-      <c r="L23" s="194"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="200"/>
+      <c r="L23" s="200"/>
       <c r="O23" s="153" t="s">
         <v>175</v>
       </c>
@@ -9295,17 +9352,17 @@
       <c r="W23" s="126"/>
     </row>
     <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="194"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="194"/>
-      <c r="K24" s="194"/>
-      <c r="L24" s="194"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="200"/>
+      <c r="L24" s="200"/>
       <c r="O24" s="136"/>
       <c r="P24" s="136"/>
       <c r="Q24" s="136"/>
@@ -9323,113 +9380,113 @@
       <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="196" t="s">
+      <c r="F26" s="194" t="s">
         <v>164</v>
       </c>
-      <c r="G26" s="197"/>
-      <c r="H26" s="197"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="197"/>
-      <c r="K26" s="197"/>
-      <c r="L26" s="198"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="196"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="194" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="197"/>
-      <c r="D28" s="198"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="196"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="194" t="s">
+      <c r="B30" s="200" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="194"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="194"/>
-      <c r="L30" s="194"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="200"/>
+      <c r="L30" s="200"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B31" s="194"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="194"/>
-      <c r="L31" s="194"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="200"/>
+      <c r="D31" s="200"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="200"/>
+      <c r="L31" s="200"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="194"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="194"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="200"/>
+      <c r="D32" s="200"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="200"/>
+      <c r="L32" s="200"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="194" t="s">
+      <c r="B34" s="200" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="194"/>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="194"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="194"/>
-      <c r="L34" s="194"/>
+      <c r="C34" s="200"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="200"/>
+      <c r="L34" s="200"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="194"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="194"/>
-      <c r="L35" s="194"/>
+      <c r="B35" s="200"/>
+      <c r="C35" s="200"/>
+      <c r="D35" s="200"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="200"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="200"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="200"/>
+      <c r="L35" s="200"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="194"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="194"/>
-      <c r="F36" s="194"/>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="194"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="194"/>
-      <c r="L36" s="194"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="200"/>
+      <c r="L36" s="200"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="67" t="s">
@@ -9438,15 +9495,15 @@
       <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="196" t="s">
+      <c r="F38" s="194" t="s">
         <v>167</v>
       </c>
-      <c r="G38" s="197"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="197"/>
-      <c r="L38" s="198"/>
+      <c r="G38" s="195"/>
+      <c r="H38" s="195"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="195"/>
+      <c r="K38" s="195"/>
+      <c r="L38" s="196"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
@@ -9460,11 +9517,11 @@
       <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="196" t="s">
+      <c r="B44" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="197"/>
-      <c r="D44" s="198"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="196"/>
       <c r="E44" s="66" t="s">
         <v>66</v>
       </c>
@@ -9494,11 +9551,11 @@
       <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="196" t="s">
+      <c r="B48" s="194" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="197"/>
-      <c r="D48" s="198"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="196"/>
       <c r="E48" s="66" t="s">
         <v>69</v>
       </c>
@@ -9541,15 +9598,15 @@
       <c r="L52" s="177"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D53" s="201"/>
-      <c r="E53" s="202"/>
-      <c r="F53" s="202"/>
-      <c r="G53" s="202"/>
-      <c r="H53" s="202"/>
-      <c r="I53" s="202"/>
-      <c r="J53" s="202"/>
-      <c r="K53" s="202"/>
-      <c r="L53" s="203"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="198"/>
+      <c r="F53" s="198"/>
+      <c r="G53" s="198"/>
+      <c r="H53" s="198"/>
+      <c r="I53" s="198"/>
+      <c r="J53" s="198"/>
+      <c r="K53" s="198"/>
+      <c r="L53" s="199"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D54" s="178"/>
@@ -9564,11 +9621,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="D52:L54"/>
-    <mergeCell ref="B34:L36"/>
-    <mergeCell ref="F38:L38"/>
     <mergeCell ref="B30:L32"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B18:L20"/>
@@ -9577,6 +9629,11 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="D52:L54"/>
+    <mergeCell ref="B34:L36"/>
+    <mergeCell ref="F38:L38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
